--- a/Figure 4 - bar charts - Total Estimated Impacts on Nutrient Avail.xlsx
+++ b/Figure 4 - bar charts - Total Estimated Impacts on Nutrient Avail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSULSER\Dropbox (IFPRI)\RTI-EPA-CO2-Micronutrients\ManuscriptDrafts\RevisedSubmitToLPH\ForGithub\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TSULSER\Dropbox (IFPRI)\Everything\RTI-EPA-CCnutrients\Errata\ForGitHub\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDF5054E-F21A-4349-9477-94145D269D2B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891F1CDE-9800-4B24-A34D-D7052DDB914D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{9283221B-5DCB-4C1D-B2A8-CD26E5D035D9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{9283221B-5DCB-4C1D-B2A8-CD26E5D035D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure4_DATA" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="Iron" sheetId="3" r:id="rId3"/>
     <sheet name="Zinc" sheetId="4" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1427,31 +1424,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-0.95045703190234221</c:v>
+                  <c:v>-0.91229956149275715</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.93072736426515057</c:v>
+                  <c:v>-0.92686598173068901</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.85182129566655895</c:v>
+                  <c:v>-0.85177746472768945</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.0937160613655692</c:v>
+                  <c:v>-1.0921263128516649</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.73914442069603226</c:v>
+                  <c:v>-0.7377174911073876</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.1933459425785315</c:v>
+                  <c:v>-1.1853714031140452</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.73728269484484343</c:v>
+                  <c:v>-0.73496465026806845</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.97775980660578021</c:v>
+                  <c:v>-0.9436166768860943</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.1356950723028572</c:v>
+                  <c:v>-0.96733632292909277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1561,31 +1558,31 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3.7705435906481561</c:v>
+                  <c:v>3.8087010610577412</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7368622677508974</c:v>
+                  <c:v>4.7407236502853536</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.83272469828386875</c:v>
+                  <c:v>0.83276852922273648</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0920103340112632</c:v>
+                  <c:v>2.0936000825251675</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.5797886214031145</c:v>
+                  <c:v>1.5812155509917556</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.22000261554898515</c:v>
+                  <c:v>0.22797715501346438</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.55982031699624457</c:v>
+                  <c:v>0.56213836157301955</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.5008552072481542</c:v>
+                  <c:v>8.5349983369678419</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6.1393436759038522</c:v>
+                  <c:v>6.3077024252776148</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4229,7 +4226,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{8AFAF5ED-4D80-48E4-ADB1-C49B8CB3E1A5}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="65" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4240,7 +4237,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3EE72EEC-F871-471F-890D-31CD1EEE0297}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4262,7 +4259,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8667750" cy="6296025"/>
+    <xdr:ext cx="8655538" cy="6252308"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4295,7 +4292,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8656236" cy="6280220"/>
+    <xdr:ext cx="8655538" cy="6252308"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -4355,806 +4352,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="comb_2050_perch"/>
-      <sheetName val="nutcont_2050_perch"/>
-      <sheetName val="totnut"/>
-      <sheetName val="Table1"/>
-      <sheetName val="TableX"/>
-      <sheetName val="Figure4_DATA"/>
-      <sheetName val="Protein"/>
-      <sheetName val="Iron"/>
-      <sheetName val="Zinc"/>
-      <sheetName val="nutcont_2050_perch summary tabl"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
-        <row r="3">
-          <cell r="B3" t="str">
-            <v>REF</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>CC</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>CO2</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>NutCont_Myers</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>NutCont_Loladze</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>NutCont_Avg</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>TOT</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>Global</v>
-          </cell>
-          <cell r="B4">
-            <v>15.935437419512056</v>
-          </cell>
-          <cell r="C4">
-            <v>-0.75588003238715373</v>
-          </cell>
-          <cell r="D4">
-            <v>1.5528847944988655</v>
-          </cell>
-          <cell r="E4">
-            <v>-3.2770452967964587</v>
-          </cell>
-          <cell r="F4">
-            <v>-4.5451729200826065</v>
-          </cell>
-          <cell r="G4">
-            <v>-3.9111091084395326</v>
-          </cell>
-          <cell r="H4">
-            <v>12.821333073184235</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>East Asia &amp; Pacific</v>
-          </cell>
-          <cell r="B5">
-            <v>28.394340936402799</v>
-          </cell>
-          <cell r="C5">
-            <v>-0.80470960228021227</v>
-          </cell>
-          <cell r="D5">
-            <v>1.7593760334333979</v>
-          </cell>
-          <cell r="E5">
-            <v>-3.7588222558853488</v>
-          </cell>
-          <cell r="F5">
-            <v>-4.9254805161881166</v>
-          </cell>
-          <cell r="G5">
-            <v>-4.3421513860367327</v>
-          </cell>
-          <cell r="H5">
-            <v>25.006855981519251</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>Europe</v>
-          </cell>
-          <cell r="B6">
-            <v>5.684404099627784</v>
-          </cell>
-          <cell r="C6">
-            <v>5.4091213902580648E-2</v>
-          </cell>
-          <cell r="D6">
-            <v>1.1085837047909877</v>
-          </cell>
-          <cell r="E6">
-            <v>-3.5148161613982154</v>
-          </cell>
-          <cell r="F6">
-            <v>-5.5594690325616511</v>
-          </cell>
-          <cell r="G6">
-            <v>-4.5371425969799333</v>
-          </cell>
-          <cell r="H6">
-            <v>2.3099364213414049</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>Former Soviet Union</v>
-          </cell>
-          <cell r="B7">
-            <v>13.160370860748614</v>
-          </cell>
-          <cell r="C7">
-            <v>-5.0599709463511999E-2</v>
-          </cell>
-          <cell r="D7">
-            <v>1.3448671225782221</v>
-          </cell>
-          <cell r="E7">
-            <v>-4.6491977447381032</v>
-          </cell>
-          <cell r="F7">
-            <v>-7.6409715447270372</v>
-          </cell>
-          <cell r="G7">
-            <v>-6.1450846447325702</v>
-          </cell>
-          <cell r="H7">
-            <v>8.3095536291307468</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>Latin America &amp; the Carribbean</v>
-          </cell>
-          <cell r="B8">
-            <v>12.498552739996313</v>
-          </cell>
-          <cell r="C8">
-            <v>-0.67022804837269234</v>
-          </cell>
-          <cell r="D8">
-            <v>0.75973926344835263</v>
-          </cell>
-          <cell r="E8">
-            <v>-2.0722588689547337</v>
-          </cell>
-          <cell r="F8">
-            <v>-3.038813921701049</v>
-          </cell>
-          <cell r="G8">
-            <v>-2.5555363953278913</v>
-          </cell>
-          <cell r="H8">
-            <v>10.032527559744082</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>Middle East &amp; North Africa</v>
-          </cell>
-          <cell r="B9">
-            <v>9.8948861519769622</v>
-          </cell>
-          <cell r="C9">
-            <v>-0.17337012924672024</v>
-          </cell>
-          <cell r="D9">
-            <v>1.3602751314067092</v>
-          </cell>
-          <cell r="E9">
-            <v>-4.6025340104124837</v>
-          </cell>
-          <cell r="F9">
-            <v>-7.3373086216990515</v>
-          </cell>
-          <cell r="G9">
-            <v>-5.9699213160557676</v>
-          </cell>
-          <cell r="H9">
-            <v>5.1118698380811765</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>North America</v>
-          </cell>
-          <cell r="B10">
-            <v>6.2086533838532034</v>
-          </cell>
-          <cell r="C10">
-            <v>-2.5713727841974787E-2</v>
-          </cell>
-          <cell r="D10">
-            <v>1.0594784975685911</v>
-          </cell>
-          <cell r="E10">
-            <v>-2.9214904495367762</v>
-          </cell>
-          <cell r="F10">
-            <v>-4.4042709499820205</v>
-          </cell>
-          <cell r="G10">
-            <v>-3.6628806997593983</v>
-          </cell>
-          <cell r="H10">
-            <v>3.5795374538204214</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>South Asia</v>
-          </cell>
-          <cell r="B11">
-            <v>27.411000830078947</v>
-          </cell>
-          <cell r="C11">
-            <v>-1.0893888607426305</v>
-          </cell>
-          <cell r="D11">
-            <v>2.3142626943023856</v>
-          </cell>
-          <cell r="E11">
-            <v>-3.8141818523230171</v>
-          </cell>
-          <cell r="F11">
-            <v>-4.973768160867408</v>
-          </cell>
-          <cell r="G11">
-            <v>-4.3939750065952126</v>
-          </cell>
-          <cell r="H11">
-            <v>24.24189965704349</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>Sub-Saharan Africa</v>
-          </cell>
-          <cell r="B12">
-            <v>16.81629524700088</v>
-          </cell>
-          <cell r="C12">
-            <v>-1.1575179140405538</v>
-          </cell>
-          <cell r="D12">
-            <v>1.0918162738086039</v>
-          </cell>
-          <cell r="E12">
-            <v>-1.832922558251866</v>
-          </cell>
-          <cell r="F12">
-            <v>-2.334642176374615</v>
-          </cell>
-          <cell r="G12">
-            <v>-2.0837823673132405</v>
-          </cell>
-          <cell r="H12">
-            <v>14.666811239455683</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>REF</v>
-          </cell>
-          <cell r="C13" t="str">
-            <v>CC</v>
-          </cell>
-          <cell r="D13" t="str">
-            <v>CO2</v>
-          </cell>
-          <cell r="E13" t="str">
-            <v>NutCont_Myers</v>
-          </cell>
-          <cell r="F13" t="str">
-            <v>NutCont_Loladze</v>
-          </cell>
-          <cell r="G13" t="str">
-            <v>NutCont_Avg</v>
-          </cell>
-          <cell r="H13" t="str">
-            <v>TOT</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>Global</v>
-          </cell>
-          <cell r="B14">
-            <v>4.4069624532471394</v>
-          </cell>
-          <cell r="C14">
-            <v>-0.19766356566703891</v>
-          </cell>
-          <cell r="D14">
-            <v>0.51170173497039784</v>
-          </cell>
-          <cell r="E14">
-            <v>-1.1078821440545319</v>
-          </cell>
-          <cell r="F14">
-            <v>-0.79303191975015253</v>
-          </cell>
-          <cell r="G14">
-            <v>-0.95045703190234221</v>
-          </cell>
-          <cell r="H14">
-            <v>3.7705435906481561</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>East Asia &amp; Pacific</v>
-          </cell>
-          <cell r="B15">
-            <v>5.311949073872281</v>
-          </cell>
-          <cell r="C15">
-            <v>-0.18778201735916156</v>
-          </cell>
-          <cell r="D15">
-            <v>0.54342257550293027</v>
-          </cell>
-          <cell r="E15">
-            <v>-1.1412706626839331</v>
-          </cell>
-          <cell r="F15">
-            <v>-0.72018406584636807</v>
-          </cell>
-          <cell r="G15">
-            <v>-0.93072736426515057</v>
-          </cell>
-          <cell r="H15">
-            <v>4.7368622677508974</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>Europe</v>
-          </cell>
-          <cell r="B16">
-            <v>1.3590221888045164</v>
-          </cell>
-          <cell r="C16">
-            <v>-8.8709642763546981E-3</v>
-          </cell>
-          <cell r="D16">
-            <v>0.33439476942226776</v>
-          </cell>
-          <cell r="E16">
-            <v>-0.83695821719576102</v>
-          </cell>
-          <cell r="F16">
-            <v>-0.86668437413735688</v>
-          </cell>
-          <cell r="G16">
-            <v>-0.85182129566655895</v>
-          </cell>
-          <cell r="H16">
-            <v>0.83272469828386875</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>Former Soviet Union</v>
-          </cell>
-          <cell r="B17">
-            <v>2.8285668096787191</v>
-          </cell>
-          <cell r="C17">
-            <v>-3.1012248194983272E-2</v>
-          </cell>
-          <cell r="D17">
-            <v>0.38817183389309662</v>
-          </cell>
-          <cell r="E17">
-            <v>-1.047819198331247</v>
-          </cell>
-          <cell r="F17">
-            <v>-1.1396129243998914</v>
-          </cell>
-          <cell r="G17">
-            <v>-1.0937160613655692</v>
-          </cell>
-          <cell r="H17">
-            <v>2.0920103340112632</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>Latin America &amp; the Carribbean</v>
-          </cell>
-          <cell r="B18">
-            <v>2.2767258535679566</v>
-          </cell>
-          <cell r="C18">
-            <v>-0.19319721329153339</v>
-          </cell>
-          <cell r="D18">
-            <v>0.23540440182272349</v>
-          </cell>
-          <cell r="E18">
-            <v>-0.83170459271775243</v>
-          </cell>
-          <cell r="F18">
-            <v>-0.64658424867431208</v>
-          </cell>
-          <cell r="G18">
-            <v>-0.73914442069603226</v>
-          </cell>
-          <cell r="H18">
-            <v>1.5797886214031145</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>Middle East &amp; North Africa</v>
-          </cell>
-          <cell r="B19">
-            <v>1.0810460643627984</v>
-          </cell>
-          <cell r="C19">
-            <v>-6.4519917703755425E-2</v>
-          </cell>
-          <cell r="D19">
-            <v>0.39682241146847375</v>
-          </cell>
-          <cell r="E19">
-            <v>-1.2170377259436549</v>
-          </cell>
-          <cell r="F19">
-            <v>-1.1696541592134082</v>
-          </cell>
-          <cell r="G19">
-            <v>-1.1933459425785315</v>
-          </cell>
-          <cell r="H19">
-            <v>0.22000261554898515</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>North America</v>
-          </cell>
-          <cell r="B20">
-            <v>1.0014771526963244</v>
-          </cell>
-          <cell r="C20">
-            <v>-3.6058874660351847E-2</v>
-          </cell>
-          <cell r="D20">
-            <v>0.33168473380511543</v>
-          </cell>
-          <cell r="E20">
-            <v>-0.75292925406413858</v>
-          </cell>
-          <cell r="F20">
-            <v>-0.72163613562554829</v>
-          </cell>
-          <cell r="G20">
-            <v>-0.73728269484484343</v>
-          </cell>
-          <cell r="H20">
-            <v>0.55982031699624457</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>South Asia</v>
-          </cell>
-          <cell r="B21">
-            <v>8.9806448379679829</v>
-          </cell>
-          <cell r="C21">
-            <v>-0.32032709343047472</v>
-          </cell>
-          <cell r="D21">
-            <v>0.81829726931642455</v>
-          </cell>
-          <cell r="E21">
-            <v>-1.1865822078710302</v>
-          </cell>
-          <cell r="F21">
-            <v>-0.76893740534053023</v>
-          </cell>
-          <cell r="G21">
-            <v>-0.97775980660578021</v>
-          </cell>
-          <cell r="H21">
-            <v>8.5008552072481542</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>Sub-Saharan Africa</v>
-          </cell>
-          <cell r="B22">
-            <v>6.9591775652637651</v>
-          </cell>
-          <cell r="C22">
-            <v>-0.16616344788961612</v>
-          </cell>
-          <cell r="D22">
-            <v>0.4820246308325622</v>
-          </cell>
-          <cell r="E22">
-            <v>-1.4320560922933332</v>
-          </cell>
-          <cell r="F22">
-            <v>-0.83933405231238112</v>
-          </cell>
-          <cell r="G22">
-            <v>-1.1356950723028572</v>
-          </cell>
-          <cell r="H22">
-            <v>6.1393436759038522</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>REF</v>
-          </cell>
-          <cell r="C23" t="str">
-            <v>CC</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>CO2</v>
-          </cell>
-          <cell r="E23" t="str">
-            <v>NutCont_Myers</v>
-          </cell>
-          <cell r="F23" t="str">
-            <v>NutCont_Loladze</v>
-          </cell>
-          <cell r="G23" t="str">
-            <v>NutCont_Avg</v>
-          </cell>
-          <cell r="H23" t="str">
-            <v>TOT</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>Global</v>
-          </cell>
-          <cell r="B24">
-            <v>2.513888487632709</v>
-          </cell>
-          <cell r="C24">
-            <v>-0.12339497789664833</v>
-          </cell>
-          <cell r="D24">
-            <v>0.257228224111401</v>
-          </cell>
-          <cell r="E24">
-            <v>-0.58090821121095004</v>
-          </cell>
-          <cell r="F24">
-            <v>-0.42303534117709773</v>
-          </cell>
-          <cell r="G24">
-            <v>-0.50197177619402389</v>
-          </cell>
-          <cell r="H24">
-            <v>2.1457499576534396</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>East Asia &amp; Pacific</v>
-          </cell>
-          <cell r="B25">
-            <v>3.7691653368471236</v>
-          </cell>
-          <cell r="C25">
-            <v>-0.12830580522809498</v>
-          </cell>
-          <cell r="D25">
-            <v>0.28167870896179892</v>
-          </cell>
-          <cell r="E25">
-            <v>-0.60738926446607167</v>
-          </cell>
-          <cell r="F25">
-            <v>-0.41489484532231202</v>
-          </cell>
-          <cell r="G25">
-            <v>-0.51114205489419184</v>
-          </cell>
-          <cell r="H25">
-            <v>3.4113961856866339</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>Europe</v>
-          </cell>
-          <cell r="B26">
-            <v>1.0902789764906196</v>
-          </cell>
-          <cell r="C26">
-            <v>1.234588466719444E-2</v>
-          </cell>
-          <cell r="D26">
-            <v>0.21449200188035888</v>
-          </cell>
-          <cell r="E26">
-            <v>-0.78243328110136545</v>
-          </cell>
-          <cell r="F26">
-            <v>-0.58029838115168531</v>
-          </cell>
-          <cell r="G26">
-            <v>-0.68136583112652538</v>
-          </cell>
-          <cell r="H26">
-            <v>0.63575103191164928</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>Former Soviet Union</v>
-          </cell>
-          <cell r="B27">
-            <v>2.1254452881570458</v>
-          </cell>
-          <cell r="C27">
-            <v>-1.6490558321891058E-3</v>
-          </cell>
-          <cell r="D27">
-            <v>0.2549454383669989</v>
-          </cell>
-          <cell r="E27">
-            <v>-1.0543304890230374</v>
-          </cell>
-          <cell r="F27">
-            <v>-0.76200800000537328</v>
-          </cell>
-          <cell r="G27">
-            <v>-0.90816924451420533</v>
-          </cell>
-          <cell r="H27">
-            <v>1.4705724261776503</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>Latin America &amp; the Carribbean</v>
-          </cell>
-          <cell r="B28">
-            <v>1.6922154070180149</v>
-          </cell>
-          <cell r="C28">
-            <v>-0.11076630870057969</v>
-          </cell>
-          <cell r="D28">
-            <v>0.14136919225779465</v>
-          </cell>
-          <cell r="E28">
-            <v>-0.49384096559972335</v>
-          </cell>
-          <cell r="F28">
-            <v>-0.35951587655869943</v>
-          </cell>
-          <cell r="G28">
-            <v>-0.42667842107921139</v>
-          </cell>
-          <cell r="H28">
-            <v>1.2961398694960167</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>Middle East &amp; North Africa</v>
-          </cell>
-          <cell r="B29">
-            <v>0.93695040101749072</v>
-          </cell>
-          <cell r="C29">
-            <v>-3.144309950350177E-2</v>
-          </cell>
-          <cell r="D29">
-            <v>0.25254076071656684</v>
-          </cell>
-          <cell r="E29">
-            <v>-1.07165734480078</v>
-          </cell>
-          <cell r="F29">
-            <v>-0.77351953877650459</v>
-          </cell>
-          <cell r="G29">
-            <v>-0.9225884417886423</v>
-          </cell>
-          <cell r="H29">
-            <v>0.23545962044191526</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>North America</v>
-          </cell>
-          <cell r="B30">
-            <v>0.83651989895829715</v>
-          </cell>
-          <cell r="C30">
-            <v>-4.2879147260634909E-3</v>
-          </cell>
-          <cell r="D30">
-            <v>0.20314327456447145</v>
-          </cell>
-          <cell r="E30">
-            <v>-0.63892124917154902</v>
-          </cell>
-          <cell r="F30">
-            <v>-0.47812661927299871</v>
-          </cell>
-          <cell r="G30">
-            <v>-0.55852393422227387</v>
-          </cell>
-          <cell r="H30">
-            <v>0.47685132457443302</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>South Asia</v>
-          </cell>
-          <cell r="B31">
-            <v>2.973385142781769</v>
-          </cell>
-          <cell r="C31">
-            <v>-0.13568679671483963</v>
-          </cell>
-          <cell r="D31">
-            <v>0.30300538778917741</v>
-          </cell>
-          <cell r="E31">
-            <v>-0.54301926871599981</v>
-          </cell>
-          <cell r="F31">
-            <v>-0.37235552897102231</v>
-          </cell>
-          <cell r="G31">
-            <v>-0.45768739884351106</v>
-          </cell>
-          <cell r="H31">
-            <v>2.6830163350125957</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>Sub-Saharan Africa</v>
-          </cell>
-          <cell r="B32">
-            <v>3.2038218955197664</v>
-          </cell>
-          <cell r="C32">
-            <v>-0.1887444891365071</v>
-          </cell>
-          <cell r="D32">
-            <v>0.19012639320519753</v>
-          </cell>
-          <cell r="E32">
-            <v>-0.32443753636169959</v>
-          </cell>
-          <cell r="F32">
-            <v>-0.2898483468530948</v>
-          </cell>
-          <cell r="G32">
-            <v>-0.30714294160739719</v>
-          </cell>
-          <cell r="H32">
-            <v>2.8980608579810596</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5459,23 +4656,25 @@
   </sheetPr>
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14:F22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.26953125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5492,7 +4691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -5512,7 +4711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -5532,7 +4731,7 @@
         <v>12.821333073184235</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -5552,7 +4751,7 @@
         <v>25.006855981519251</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -5572,7 +4771,7 @@
         <v>2.3099364213414049</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -5592,7 +4791,7 @@
         <v>8.3095536291307468</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5612,7 +4811,7 @@
         <v>10.032527559744082</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -5632,7 +4831,7 @@
         <v>5.1118698380811765</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -5652,7 +4851,7 @@
         <v>3.5795374538204214</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -5672,7 +4871,7 @@
         <v>24.24189965704349</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -5692,7 +4891,7 @@
         <v>14.666811239455683</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -5712,7 +4911,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5726,13 +4925,13 @@
         <v>0.51170173497039784</v>
       </c>
       <c r="E14" s="4">
-        <v>-0.95045703190234221</v>
+        <v>-0.91229956149275715</v>
       </c>
       <c r="F14" s="5">
-        <v>3.7705435906481561</v>
+        <v>3.8087010610577412</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -5746,13 +4945,13 @@
         <v>0.54342257550293027</v>
       </c>
       <c r="E15" s="4">
-        <v>-0.93072736426515057</v>
+        <v>-0.92686598173068901</v>
       </c>
       <c r="F15" s="5">
-        <v>4.7368622677508974</v>
+        <v>4.7407236502853536</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -5766,13 +4965,13 @@
         <v>0.33439476942226776</v>
       </c>
       <c r="E16" s="4">
-        <v>-0.85182129566655895</v>
+        <v>-0.85177746472768945</v>
       </c>
       <c r="F16" s="5">
-        <v>0.83272469828386875</v>
+        <v>0.83276852922273648</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -5786,13 +4985,13 @@
         <v>0.38817183389309662</v>
       </c>
       <c r="E17" s="4">
-        <v>-1.0937160613655692</v>
+        <v>-1.0921263128516649</v>
       </c>
       <c r="F17" s="5">
-        <v>2.0920103340112632</v>
+        <v>2.0936000825251675</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -5806,13 +5005,13 @@
         <v>0.23540440182272349</v>
       </c>
       <c r="E18" s="4">
-        <v>-0.73914442069603226</v>
+        <v>-0.7377174911073876</v>
       </c>
       <c r="F18" s="5">
-        <v>1.5797886214031145</v>
+        <v>1.5812155509917556</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -5826,13 +5025,13 @@
         <v>0.39682241146847375</v>
       </c>
       <c r="E19" s="4">
-        <v>-1.1933459425785315</v>
+        <v>-1.1853714031140452</v>
       </c>
       <c r="F19" s="5">
-        <v>0.22000261554898515</v>
+        <v>0.22797715501346438</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -5846,13 +5045,13 @@
         <v>0.33168473380511543</v>
       </c>
       <c r="E20" s="4">
-        <v>-0.73728269484484343</v>
+        <v>-0.73496465026806845</v>
       </c>
       <c r="F20" s="5">
-        <v>0.55982031699624457</v>
+        <v>0.56213836157301955</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -5866,13 +5065,13 @@
         <v>0.81829726931642455</v>
       </c>
       <c r="E21" s="4">
-        <v>-0.97775980660578021</v>
+        <v>-0.9436166768860943</v>
       </c>
       <c r="F21" s="5">
-        <v>8.5008552072481542</v>
+        <v>8.5349983369678419</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -5886,13 +5085,13 @@
         <v>0.4820246308325622</v>
       </c>
       <c r="E22" s="4">
-        <v>-1.1356950723028572</v>
+        <v>-0.96733632292909277</v>
       </c>
       <c r="F22" s="5">
-        <v>6.1393436759038522</v>
+        <v>6.3077024252776148</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -5912,7 +5111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -5932,7 +5131,7 @@
         <v>2.1457499576534396</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -5952,7 +5151,7 @@
         <v>3.4113961856866339</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -5972,7 +5171,7 @@
         <v>0.63575103191164928</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -5992,7 +5191,7 @@
         <v>1.4705724261776503</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -6012,7 +5211,7 @@
         <v>1.2961398694960167</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -6032,7 +5231,7 @@
         <v>0.23545962044191526</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>17</v>
       </c>
@@ -6052,7 +5251,7 @@
         <v>0.47685132457443302</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>18</v>
       </c>
@@ -6072,7 +5271,7 @@
         <v>2.6830163350125957</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>19</v>
       </c>
